--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H2">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I2">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J2">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N2">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O2">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P2">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q2">
-        <v>1372.845629999264</v>
+        <v>34.24064070372399</v>
       </c>
       <c r="R2">
-        <v>1372.845629999264</v>
+        <v>136.962562814896</v>
       </c>
       <c r="S2">
-        <v>0.3397089515485008</v>
+        <v>0.006068874245068223</v>
       </c>
       <c r="T2">
-        <v>0.3397089515485008</v>
+        <v>0.003903907057670297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H3">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I3">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J3">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N3">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P3">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q3">
-        <v>205.1120508322866</v>
+        <v>5.506053974837</v>
       </c>
       <c r="R3">
-        <v>205.1120508322866</v>
+        <v>33.036323849022</v>
       </c>
       <c r="S3">
-        <v>0.05075472304794839</v>
+        <v>0.0009759031511407884</v>
       </c>
       <c r="T3">
-        <v>0.05075472304794839</v>
+        <v>0.0009416495660057242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H4">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I4">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J4">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N4">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O4">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P4">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q4">
-        <v>38.24695009631593</v>
+        <v>1.053676541876833</v>
       </c>
       <c r="R4">
-        <v>38.24695009631593</v>
+        <v>6.322059251261</v>
       </c>
       <c r="S4">
-        <v>0.009464160451276869</v>
+        <v>0.0001867555716308015</v>
       </c>
       <c r="T4">
-        <v>0.009464160451276869</v>
+        <v>0.0001802005688471489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H5">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I5">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J5">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N5">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O5">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P5">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q5">
-        <v>43.85201427363775</v>
+        <v>1.116377200063666</v>
       </c>
       <c r="R5">
-        <v>43.85201427363775</v>
+        <v>6.698263200382</v>
       </c>
       <c r="S5">
-        <v>0.01085112664283701</v>
+        <v>0.0001978687518107948</v>
       </c>
       <c r="T5">
-        <v>0.01085112664283701</v>
+        <v>0.0001909236834115412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H6">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I6">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J6">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N6">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O6">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P6">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q6">
-        <v>835.7332707499419</v>
+        <v>20.9811357604095</v>
       </c>
       <c r="R6">
-        <v>835.7332707499419</v>
+        <v>125.886814562457</v>
       </c>
       <c r="S6">
-        <v>0.2068011632020231</v>
+        <v>0.003718735158912507</v>
       </c>
       <c r="T6">
-        <v>0.2068011632020231</v>
+        <v>0.003588209900118472</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H7">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I7">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J7">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N7">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O7">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P7">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q7">
-        <v>51.84375549521562</v>
+        <v>1.30436187815375</v>
       </c>
       <c r="R7">
-        <v>51.84375549521562</v>
+        <v>5.217447512614999</v>
       </c>
       <c r="S7">
-        <v>0.01282867311427139</v>
+        <v>0.0002311875025082451</v>
       </c>
       <c r="T7">
-        <v>0.01282867311427139</v>
+        <v>0.0001487153113150331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H8">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J8">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N8">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O8">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P8">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q8">
-        <v>804.8613346556466</v>
+        <v>1578.01278150305</v>
       </c>
       <c r="R8">
-        <v>804.8613346556466</v>
+        <v>9468.076689018302</v>
       </c>
       <c r="S8">
-        <v>0.1991619408352149</v>
+        <v>0.2796898928065551</v>
       </c>
       <c r="T8">
-        <v>0.1991619408352149</v>
+        <v>0.2698729539602492</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H9">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J9">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N9">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P9">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q9">
-        <v>120.251509258852</v>
+        <v>253.7517806141254</v>
       </c>
       <c r="R9">
-        <v>120.251509258852</v>
+        <v>2283.766025527128</v>
       </c>
       <c r="S9">
-        <v>0.02975608709368973</v>
+        <v>0.04497543312154726</v>
       </c>
       <c r="T9">
-        <v>0.02975608709368973</v>
+        <v>0.06509523567525813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H10">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J10">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N10">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O10">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P10">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q10">
-        <v>22.42312655432734</v>
+        <v>48.55969445895156</v>
       </c>
       <c r="R10">
-        <v>22.42312655432734</v>
+        <v>437.037250130564</v>
       </c>
       <c r="S10">
-        <v>0.005548574905842815</v>
+        <v>0.008606809714815339</v>
       </c>
       <c r="T10">
-        <v>0.005548574905842815</v>
+        <v>0.01245707418278513</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H11">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J11">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N11">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O11">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P11">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q11">
-        <v>25.7092202971411</v>
+        <v>51.44931445419644</v>
       </c>
       <c r="R11">
-        <v>25.7092202971411</v>
+        <v>463.043830087768</v>
       </c>
       <c r="S11">
-        <v>0.006361714734289477</v>
+        <v>0.009118971286758953</v>
       </c>
       <c r="T11">
-        <v>0.006361714734289477</v>
+        <v>0.01319835171844288</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H12">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J12">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N12">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O12">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P12">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q12">
-        <v>489.9672483295064</v>
+        <v>966.9357733944521</v>
       </c>
       <c r="R12">
-        <v>489.9672483295064</v>
+        <v>8702.421960550069</v>
       </c>
       <c r="S12">
-        <v>0.1212417890154261</v>
+        <v>0.1713814780092736</v>
       </c>
       <c r="T12">
-        <v>0.1212417890154261</v>
+        <v>0.2480491443237032</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.068161333333333</v>
+      </c>
+      <c r="H13">
+        <v>18.204484</v>
+      </c>
+      <c r="I13">
+        <v>0.5244270828216987</v>
+      </c>
+      <c r="J13">
+        <v>0.6189532915869436</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N13">
+        <v>19.812515</v>
+      </c>
+      <c r="O13">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P13">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q13">
+        <v>60.11276871954333</v>
+      </c>
+      <c r="R13">
+        <v>360.67661231726</v>
+      </c>
+      <c r="S13">
+        <v>0.01065449788274849</v>
+      </c>
+      <c r="T13">
+        <v>0.01028053172650495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.170058</v>
+      </c>
+      <c r="I14">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J14">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>260.047928</v>
+      </c>
+      <c r="N14">
+        <v>520.0958559999999</v>
+      </c>
+      <c r="O14">
+        <v>0.5333246545957803</v>
+      </c>
+      <c r="P14">
+        <v>0.4360150557860642</v>
+      </c>
+      <c r="Q14">
+        <v>14.741076846608</v>
+      </c>
+      <c r="R14">
+        <v>88.44646107964797</v>
+      </c>
+      <c r="S14">
+        <v>0.002612735620020712</v>
+      </c>
+      <c r="T14">
+        <v>0.002521030247524295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.170058</v>
+      </c>
+      <c r="I15">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J15">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>41.816914</v>
+      </c>
+      <c r="N15">
+        <v>125.450742</v>
+      </c>
+      <c r="O15">
+        <v>0.08576108022407106</v>
+      </c>
+      <c r="P15">
+        <v>0.1051698675167548</v>
+      </c>
+      <c r="Q15">
+        <v>2.370433587004</v>
+      </c>
+      <c r="R15">
+        <v>21.333902283036</v>
+      </c>
+      <c r="S15">
+        <v>0.0004201400163709162</v>
+      </c>
+      <c r="T15">
+        <v>0.0006080900501471531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.170058</v>
+      </c>
+      <c r="I16">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J16">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.002373666666667</v>
+      </c>
+      <c r="N16">
+        <v>24.007121</v>
+      </c>
+      <c r="O16">
+        <v>0.01641183302072443</v>
+      </c>
+      <c r="P16">
+        <v>0.0201260326943997</v>
+      </c>
+      <c r="Q16">
+        <v>0.4536225536686667</v>
+      </c>
+      <c r="R16">
+        <v>4.082602983018</v>
+      </c>
+      <c r="S16">
+        <v>8.040089719005859E-05</v>
+      </c>
+      <c r="T16">
+        <v>0.0001163683146073283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.170058</v>
+      </c>
+      <c r="I17">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J17">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.478567333333332</v>
+      </c>
+      <c r="N17">
+        <v>25.435702</v>
+      </c>
+      <c r="O17">
+        <v>0.01738844461978203</v>
+      </c>
+      <c r="P17">
+        <v>0.02132366351038126</v>
+      </c>
+      <c r="Q17">
+        <v>0.4806160678573332</v>
+      </c>
+      <c r="R17">
+        <v>4.325544610715999</v>
+      </c>
+      <c r="S17">
+        <v>8.518527737911461E-05</v>
+      </c>
+      <c r="T17">
+        <v>0.0001232929917999851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.170058</v>
+      </c>
+      <c r="I18">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J18">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>159.345759</v>
+      </c>
+      <c r="N18">
+        <v>478.037277</v>
+      </c>
+      <c r="O18">
+        <v>0.3267975351065956</v>
+      </c>
+      <c r="P18">
+        <v>0.4007558368220747</v>
+      </c>
+      <c r="Q18">
+        <v>9.032673694673999</v>
+      </c>
+      <c r="R18">
+        <v>81.294063252066</v>
+      </c>
+      <c r="S18">
+        <v>0.001600967727912587</v>
+      </c>
+      <c r="T18">
+        <v>0.002317162155510714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.170058</v>
+      </c>
+      <c r="I19">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J19">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N19">
+        <v>19.812515</v>
+      </c>
+      <c r="O19">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P19">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q19">
+        <v>0.5615461126449999</v>
+      </c>
+      <c r="R19">
+        <v>3.369276675869999</v>
+      </c>
+      <c r="S19">
+        <v>9.952946762701119E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.603604608326049E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.434455</v>
+      </c>
+      <c r="I20">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J20">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>260.047928</v>
+      </c>
+      <c r="N20">
+        <v>520.0958559999999</v>
+      </c>
+      <c r="O20">
+        <v>0.5333246545957803</v>
+      </c>
+      <c r="P20">
+        <v>0.4360150557860642</v>
+      </c>
+      <c r="Q20">
+        <v>37.65970751974666</v>
+      </c>
+      <c r="R20">
+        <v>225.95824511848</v>
+      </c>
+      <c r="S20">
+        <v>0.006674875947006896</v>
+      </c>
+      <c r="T20">
+        <v>0.006440592010891387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="H13">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="I13">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="J13">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.79324808432963</v>
-      </c>
-      <c r="N13">
-        <v>9.79324808432963</v>
-      </c>
-      <c r="O13">
-        <v>0.0203497685229511</v>
-      </c>
-      <c r="P13">
-        <v>0.0203497685229511</v>
-      </c>
-      <c r="Q13">
-        <v>30.39455662721716</v>
-      </c>
-      <c r="R13">
-        <v>30.39455662721716</v>
-      </c>
-      <c r="S13">
-        <v>0.007521095408679716</v>
-      </c>
-      <c r="T13">
-        <v>0.007521095408679716</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.434455</v>
+      </c>
+      <c r="I21">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J21">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>41.816914</v>
+      </c>
+      <c r="N21">
+        <v>125.450742</v>
+      </c>
+      <c r="O21">
+        <v>0.08576108022407106</v>
+      </c>
+      <c r="P21">
+        <v>0.1051698675167548</v>
+      </c>
+      <c r="Q21">
+        <v>6.055855790623333</v>
+      </c>
+      <c r="R21">
+        <v>54.50270211561</v>
+      </c>
+      <c r="S21">
+        <v>0.001073351037954265</v>
+      </c>
+      <c r="T21">
+        <v>0.001553515640173831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.434455</v>
+      </c>
+      <c r="I22">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J22">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.002373666666667</v>
+      </c>
+      <c r="N22">
+        <v>24.007121</v>
+      </c>
+      <c r="O22">
+        <v>0.01641183302072443</v>
+      </c>
+      <c r="P22">
+        <v>0.0201260326943997</v>
+      </c>
+      <c r="Q22">
+        <v>1.158890417117222</v>
+      </c>
+      <c r="R22">
+        <v>10.430013754055</v>
+      </c>
+      <c r="S22">
+        <v>0.0002054038727299328</v>
+      </c>
+      <c r="T22">
+        <v>0.0002972914895078551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.434455</v>
+      </c>
+      <c r="I23">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J23">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.478567333333332</v>
+      </c>
+      <c r="N23">
+        <v>25.435702</v>
+      </c>
+      <c r="O23">
+        <v>0.01738844461978203</v>
+      </c>
+      <c r="P23">
+        <v>0.02132366351038126</v>
+      </c>
+      <c r="Q23">
+        <v>1.227851990267778</v>
+      </c>
+      <c r="R23">
+        <v>11.05066791241</v>
+      </c>
+      <c r="S23">
+        <v>0.0002176267490135321</v>
+      </c>
+      <c r="T23">
+        <v>0.0003149822810597708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.434455</v>
+      </c>
+      <c r="I24">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J24">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>159.345759</v>
+      </c>
+      <c r="N24">
+        <v>478.037277</v>
+      </c>
+      <c r="O24">
+        <v>0.3267975351065956</v>
+      </c>
+      <c r="P24">
+        <v>0.4007558368220747</v>
+      </c>
+      <c r="Q24">
+        <v>23.076187242115</v>
+      </c>
+      <c r="R24">
+        <v>207.685685179035</v>
+      </c>
+      <c r="S24">
+        <v>0.00409006594356198</v>
+      </c>
+      <c r="T24">
+        <v>0.005919760812619267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.434455</v>
+      </c>
+      <c r="I25">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J25">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N25">
+        <v>19.812515</v>
+      </c>
+      <c r="O25">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P25">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q25">
+        <v>1.434607700720833</v>
+      </c>
+      <c r="R25">
+        <v>8.607646204324999</v>
+      </c>
+      <c r="S25">
+        <v>0.0002542725120717235</v>
+      </c>
+      <c r="T25">
+        <v>0.0002453477072593052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.1696935</v>
+      </c>
+      <c r="H26">
+        <v>10.339387</v>
+      </c>
+      <c r="I26">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J26">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>260.047928</v>
+      </c>
+      <c r="N26">
+        <v>520.0958559999999</v>
+      </c>
+      <c r="O26">
+        <v>0.5333246545957803</v>
+      </c>
+      <c r="P26">
+        <v>0.4360150557860642</v>
+      </c>
+      <c r="Q26">
+        <v>1344.368083070068</v>
+      </c>
+      <c r="R26">
+        <v>5377.472332280271</v>
+      </c>
+      <c r="S26">
+        <v>0.2382782759771293</v>
+      </c>
+      <c r="T26">
+        <v>0.1532765725097289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.1696935</v>
+      </c>
+      <c r="H27">
+        <v>10.339387</v>
+      </c>
+      <c r="I27">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J27">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>41.816914</v>
+      </c>
+      <c r="N27">
+        <v>125.450742</v>
+      </c>
+      <c r="O27">
+        <v>0.08576108022407106</v>
+      </c>
+      <c r="P27">
+        <v>0.1051698675167548</v>
+      </c>
+      <c r="Q27">
+        <v>216.180628495859</v>
+      </c>
+      <c r="R27">
+        <v>1297.083770975154</v>
+      </c>
+      <c r="S27">
+        <v>0.03831625289705782</v>
+      </c>
+      <c r="T27">
+        <v>0.03697137658516991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.1696935</v>
+      </c>
+      <c r="H28">
+        <v>10.339387</v>
+      </c>
+      <c r="I28">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J28">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.002373666666667</v>
+      </c>
+      <c r="N28">
+        <v>24.007121</v>
+      </c>
+      <c r="O28">
+        <v>0.01641183302072443</v>
+      </c>
+      <c r="P28">
+        <v>0.0201260326943997</v>
+      </c>
+      <c r="Q28">
+        <v>41.36981912913784</v>
+      </c>
+      <c r="R28">
+        <v>248.218914774827</v>
+      </c>
+      <c r="S28">
+        <v>0.007332462964358293</v>
+      </c>
+      <c r="T28">
+        <v>0.007075098138652227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.1696935</v>
+      </c>
+      <c r="H29">
+        <v>10.339387</v>
+      </c>
+      <c r="I29">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J29">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.478567333333332</v>
+      </c>
+      <c r="N29">
+        <v>25.435702</v>
+      </c>
+      <c r="O29">
+        <v>0.01738844461978203</v>
+      </c>
+      <c r="P29">
+        <v>0.02132366351038126</v>
+      </c>
+      <c r="Q29">
+        <v>43.83159443244566</v>
+      </c>
+      <c r="R29">
+        <v>262.989566594674</v>
+      </c>
+      <c r="S29">
+        <v>0.007768792554819637</v>
+      </c>
+      <c r="T29">
+        <v>0.007496112835667081</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.1696935</v>
+      </c>
+      <c r="H30">
+        <v>10.339387</v>
+      </c>
+      <c r="I30">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J30">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>159.345759</v>
+      </c>
+      <c r="N30">
+        <v>478.037277</v>
+      </c>
+      <c r="O30">
+        <v>0.3267975351065956</v>
+      </c>
+      <c r="P30">
+        <v>0.4007558368220747</v>
+      </c>
+      <c r="Q30">
+        <v>823.7687345548666</v>
+      </c>
+      <c r="R30">
+        <v>4942.612407329199</v>
+      </c>
+      <c r="S30">
+        <v>0.1460062882669349</v>
+      </c>
+      <c r="T30">
+        <v>0.140881559630123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.1696935</v>
+      </c>
+      <c r="H31">
+        <v>10.339387</v>
+      </c>
+      <c r="I31">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J31">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>9.906257499999999</v>
+      </c>
+      <c r="N31">
+        <v>19.812515</v>
+      </c>
+      <c r="O31">
+        <v>0.02031645243304672</v>
+      </c>
+      <c r="P31">
+        <v>0.01660954367032533</v>
+      </c>
+      <c r="Q31">
+        <v>51.21231500707624</v>
+      </c>
+      <c r="R31">
+        <v>204.849260028305</v>
+      </c>
+      <c r="S31">
+        <v>0.009076965068091244</v>
+      </c>
+      <c r="T31">
+        <v>0.005838912879162783</v>
       </c>
     </row>
   </sheetData>
